--- a/xlsx_storage/1.xlsx
+++ b/xlsx_storage/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ubuntu\python\classMaker\xlsx_storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ubuntu\python\classMaker\xlsx_storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F1E54C-0F97-4710-A143-2B541C233CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF050907-0EBD-4FD1-BADB-B4A9FA13EDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="795" windowWidth="14130" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="44">
   <si>
     <t>학생 이름</t>
   </si>
@@ -138,6 +138,26 @@
   </si>
   <si>
     <t>집중 못함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 (A/B/C/D)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -524,15 +544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,16 +566,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -569,13 +592,16 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -589,13 +615,16 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -609,13 +638,16 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -629,13 +661,16 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -649,16 +684,19 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -672,13 +710,16 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -692,13 +733,16 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -712,13 +756,16 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -732,13 +779,16 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -752,13 +802,16 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -772,13 +825,16 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -792,13 +848,16 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -812,13 +871,16 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -832,13 +894,16 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -852,13 +917,16 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -872,13 +940,16 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -892,13 +963,16 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -912,13 +986,16 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -932,13 +1009,16 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -952,13 +1032,16 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -972,13 +1055,16 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
         <v>25</v>
       </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -992,13 +1078,16 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1012,9 +1101,12 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
         <v>10</v>
       </c>
     </row>
